--- a/Branchements myRIO.xlsx
+++ b/Branchements myRIO.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>Elément</t>
   </si>
@@ -35,9 +35,6 @@
     <t>A/DIO0 (Pin 11)</t>
   </si>
   <si>
-    <t>A/DIO2 (Pin 15)</t>
-  </si>
-  <si>
     <t>DIR</t>
   </si>
   <si>
@@ -50,12 +47,6 @@
     <t>Demux: C</t>
   </si>
   <si>
-    <t>A/DIO3 (Pin 17)</t>
-  </si>
-  <si>
-    <t>A/DIO4 (Pin 19)</t>
-  </si>
-  <si>
     <t>Encodeur</t>
   </si>
   <si>
@@ -138,6 +129,33 @@
   </si>
   <si>
     <t>B/DIO12 (Pin 22)</t>
+  </si>
+  <si>
+    <t>GND</t>
+  </si>
+  <si>
+    <t>B/ Pin 6</t>
+  </si>
+  <si>
+    <t>A/AO1 (Pin 4)</t>
+  </si>
+  <si>
+    <t>VDD (cst =5)</t>
+  </si>
+  <si>
+    <t>A/AO1 (Pin 2)</t>
+  </si>
+  <si>
+    <t>VEE (cst = -10)</t>
+  </si>
+  <si>
+    <t>B/AO0 (Pin 2)</t>
+  </si>
+  <si>
+    <t>B/AO1 (Pin 4)</t>
+  </si>
+  <si>
+    <t>C/AO0 (AO0)</t>
   </si>
 </sst>
 </file>
@@ -194,10 +212,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -478,15 +497,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:C21"/>
+  <dimension ref="B1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:3" x14ac:dyDescent="0.25">
@@ -499,39 +519,39 @@
     </row>
     <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>7</v>
@@ -539,114 +559,138 @@
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B8" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
+      <c r="B9" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B10" s="1" t="s">
-        <v>33</v>
+      <c r="B10" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
+      <c r="B15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B17" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B18" s="1" t="s">
-        <v>17</v>
+      <c r="B18" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B23" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B24" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/Branchements myRIO.xlsx
+++ b/Branchements myRIO.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="64">
   <si>
     <t>Elément</t>
   </si>
@@ -140,12 +140,6 @@
     <t>A/AO1 (Pin 4)</t>
   </si>
   <si>
-    <t>VDD (cst =5)</t>
-  </si>
-  <si>
-    <t>A/AO1 (Pin 2)</t>
-  </si>
-  <si>
     <t>VEE (cst = -10)</t>
   </si>
   <si>
@@ -156,6 +150,72 @@
   </si>
   <si>
     <t>C/AO0 (AO0)</t>
+  </si>
+  <si>
+    <t>VDD (cst = 5)</t>
+  </si>
+  <si>
+    <t>C/AO1 (AO1)</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>Moteurs sur plaque:</t>
+  </si>
+  <si>
+    <t>Driver</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>M3</t>
+  </si>
+  <si>
+    <t>M4</t>
+  </si>
+  <si>
+    <t>M5</t>
+  </si>
+  <si>
+    <t>M6</t>
+  </si>
+  <si>
+    <t>Enco1</t>
+  </si>
+  <si>
+    <t>Enco2</t>
+  </si>
+  <si>
+    <t>Enco3</t>
+  </si>
+  <si>
+    <t>Enco4</t>
+  </si>
+  <si>
+    <t>Enco5</t>
+  </si>
+  <si>
+    <t>Enco6</t>
   </si>
 </sst>
 </file>
@@ -171,7 +231,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -181,6 +241,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -212,11 +278,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -497,19 +564,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:C24"/>
+  <dimension ref="B1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
@@ -517,132 +585,195 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="E7" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="3" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="C9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B9" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B10" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B11" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B12" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B13" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B14" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B15" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B16" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B18" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
